--- a/lab2/matrix2.xlsx
+++ b/lab2/matrix2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\311817\Desktop\itmo\4 year\Моделирование\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E1CC3F-8661-4001-A7FB-366C031DD65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E85F28-AC60-4C8B-BAB6-C2023DB5E8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>E0</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>q &lt;=</t>
+  </si>
+  <si>
+    <t>Номер состояния</t>
+  </si>
+  <si>
+    <t>Система 1</t>
+  </si>
+  <si>
+    <t>Система 2</t>
+  </si>
+  <si>
+    <t>Обозн.</t>
+  </si>
+  <si>
+    <t>Вероятн.</t>
   </si>
 </sst>
 </file>
@@ -151,7 +166,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -189,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -212,11 +227,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -225,16 +266,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,23 +624,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R27"/>
+  <dimension ref="B2:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="17" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="9.140625" style="1"/>
     <col min="27" max="27" width="18.28515625" style="1" customWidth="1"/>
     <col min="28" max="28" width="18.42578125" style="1" customWidth="1"/>
     <col min="29" max="29" width="18.28515625" style="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="6"/>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B2" s="4"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,511 +688,709 @@
       <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R2" s="3"/>
+      <c r="U2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="7"/>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <f>-SUM(D3:$Q3)</f>
         <v>-0.5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <f>$J$23</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <f>$L$23</f>
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <f>$M$23</f>
         <v>0.11549999999999998</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="3">
+        <v>4</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <f>$G$23</f>
         <v>0.1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <f>-SUM($C4:C4)-SUM(E4:$Q4)</f>
         <v>-0.48450000000000004</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <f>$L$23</f>
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
         <f>$J$23</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="3">
+        <v>4</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <f>$H$23</f>
         <v>0.29411764705882348</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7">
+      <c r="D5" s="6"/>
+      <c r="E5" s="5">
         <f>-SUM($C5:D5)-SUM(F5:$Q5)</f>
         <v>-0.61911764705882355</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <f>$J$23</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="3">
+        <v>3</v>
+      </c>
+      <c r="U5" s="2">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <f>L23</f>
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <f>J23</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <f>-SUM($C6:E6)-SUM(G6:$Q6)</f>
         <v>-0.70950000000000002</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6">
         <f>J23</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="3">
+        <v>4</v>
+      </c>
+      <c r="U6" s="2">
+        <v>3</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <f>I23</f>
         <v>0.15151515151515152</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5">
         <f>-SUM($C7:F7)-SUM(H7:$Q7)</f>
         <v>-0.65151515151515149</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <f>J23</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6">
         <f>K23</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="3">
+        <v>4</v>
+      </c>
+      <c r="U7" s="2">
+        <v>4</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2">
+        <v>2.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
         <f>G23</f>
         <v>0.1</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
         <f>I23</f>
         <v>0.15151515151515152</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <f>-SUM($C8:G8)-SUM(I8:$Q8)</f>
         <v>-0.75151515151515147</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
         <f>J23</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
         <f>K23</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="3">
+        <v>5</v>
+      </c>
+      <c r="U8" s="2">
+        <v>5</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2">
+        <v>2.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <f>G23</f>
         <v>0.1</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5">
         <f>-SUM($C9:H9)-SUM(J9:$Q9)</f>
         <v>-0.27500000000000002</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <f>L23</f>
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <f>M23</f>
         <v>0.11549999999999998</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="3">
+        <v>4</v>
+      </c>
+      <c r="U9" s="2">
+        <v>6</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2">
+        <v>4.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <f>G23</f>
         <v>0.1</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
         <f>H23</f>
         <v>0.29411764705882348</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <f>-SUM($C10:I10)-SUM(K10:$Q10)</f>
         <v>-0.56911764705882351</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6">
         <f>K23</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="3">
+        <v>4</v>
+      </c>
+      <c r="U10" s="2">
+        <v>7</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2">
+        <v>0.25319999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <f>G23</f>
         <v>0.1</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <f>I23</f>
         <v>0.15151515151515152</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="7">
+      <c r="J11" s="6"/>
+      <c r="K11" s="5">
         <f>-SUM($C11:J11)-SUM(L11:$Q11)</f>
         <v>-0.42651515151515151</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6">
         <f>K23</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R11" s="3">
+        <v>4</v>
+      </c>
+      <c r="U11" s="2">
+        <v>8</v>
+      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2">
+        <v>5.4399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
         <f>H23</f>
         <v>0.29411764705882348</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="7">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5">
         <f>-SUM($C12:K12)-SUM(M12:$Q12)</f>
         <v>-0.61911764705882355</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <f>J23</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="3">
+        <v>3</v>
+      </c>
+      <c r="U12" s="2">
+        <v>9</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2">
+        <v>0.1694</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
         <f>H23</f>
         <v>0.29411764705882348</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <f>G23</f>
         <v>0.1</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="5">
         <f>-SUM($C13:L13)-SUM(N13:$Q13)</f>
         <v>-0.71911764705882342</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6">
         <f>J23</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="3">
+        <v>4</v>
+      </c>
+      <c r="U13" s="2">
+        <v>10</v>
+      </c>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
         <f>I23</f>
         <v>0.15151515151515152</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="7">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="5">
         <f>-SUM($C14:M14)-SUM(O14:$Q14)</f>
         <v>-0.47651515151515156</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="6">
         <f>J23</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="3">
+        <v>3</v>
+      </c>
+      <c r="U14" s="2">
+        <v>11</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <f>I23</f>
         <v>0.15151515151515152</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6">
         <f>G23</f>
         <v>0.1</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="5">
         <f>-SUM($C15:N15)-SUM(P15:$Q15)</f>
         <v>-0.57651515151515154</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5">
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6">
         <f>J23</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>4</v>
+      </c>
+      <c r="U15" s="2">
+        <v>12</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6">
         <f>H23</f>
         <v>0.29411764705882348</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6">
         <f>G23</f>
         <v>0.1</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="7">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="5">
         <f>-SUM($C16:O16)-SUM(Q16:$Q16)</f>
         <v>-0.39411764705882346</v>
       </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="3">
+        <v>3</v>
+      </c>
+      <c r="U16" s="2">
+        <v>13</v>
+      </c>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2">
+        <v>5.7299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6">
         <f>I23</f>
         <v>0.15151515151515152</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6">
         <f>G23</f>
         <v>0.1</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="7">
+      <c r="P17" s="6"/>
+      <c r="Q17" s="5">
         <f>-SUM($C17:P17)</f>
         <v>-0.25151515151515152</v>
       </c>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>3</v>
+      </c>
+      <c r="U17" s="2">
+        <v>14</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3">
+        <f>SUM(R3:R17)</f>
+        <v>56</v>
+      </c>
+      <c r="U18" s="2">
+        <v>15</v>
+      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2">
+        <v>0.19189999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y19" s="1">
+        <f>SUM(Y4:Y18)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="J21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1157,7 +1404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1195,7 +1442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>0.5</v>
       </c>
@@ -1241,7 +1488,7 @@
         <v>0.11549999999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1258,7 +1505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <f>2.2</f>
         <v>2.2000000000000002</v>
@@ -1280,8 +1527,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="U2:U3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>